--- a/src/excel/companies.xlsx
+++ b/src/excel/companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iglebov/PycharmProjects/rpa_case/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150857F9-AF98-CA49-84A5-A1F87FA02E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98720231-E9FE-C240-A4D5-62A5638089C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Название компании</t>
   </si>
@@ -33,25 +33,7 @@
     <t>ИНН</t>
   </si>
   <si>
-    <t>ИП Иваха Ю.А.</t>
-  </si>
-  <si>
-    <t>ИП Плешков С.В.</t>
-  </si>
-  <si>
-    <t>МУП "Заозерновский ЖКК"</t>
-  </si>
-  <si>
-    <t>" АЛТАЙ-ЦЕНТР " ООО</t>
-  </si>
-  <si>
-    <t>" ДОМСТРОЙКОМПЛЕКТ " ООО</t>
-  </si>
-  <si>
-    <t>ПАО "Сбербанк"</t>
-  </si>
-  <si>
-    <t>ПАО "Лукойл"</t>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -96,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,36 +126,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -200,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,10 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +457,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,61 +474,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>2330086193</v>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1207017653</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7708004767</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2448002903</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2221043415</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2221052265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7707083893</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
